--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.41341894263147</v>
+        <v>3.823575666666667</v>
       </c>
       <c r="H2">
-        <v>3.41341894263147</v>
+        <v>11.470727</v>
       </c>
       <c r="I2">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677273</v>
       </c>
       <c r="J2">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677272</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N2">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q2">
-        <v>17.01436470512389</v>
+        <v>19.10299060421256</v>
       </c>
       <c r="R2">
-        <v>17.01436470512389</v>
+        <v>171.926915437913</v>
       </c>
       <c r="S2">
-        <v>0.002120428998177236</v>
+        <v>0.002198281633033787</v>
       </c>
       <c r="T2">
-        <v>0.002120428998177236</v>
+        <v>0.002198281633033786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.41341894263147</v>
+        <v>3.823575666666667</v>
       </c>
       <c r="H3">
-        <v>3.41341894263147</v>
+        <v>11.470727</v>
       </c>
       <c r="I3">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677273</v>
       </c>
       <c r="J3">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677272</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N3">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q3">
-        <v>120.6654394874048</v>
+        <v>135.3832694372774</v>
       </c>
       <c r="R3">
-        <v>120.6654394874048</v>
+        <v>1218.449424935497</v>
       </c>
       <c r="S3">
-        <v>0.01503802824267899</v>
+        <v>0.01557926508943594</v>
       </c>
       <c r="T3">
-        <v>0.01503802824267899</v>
+        <v>0.01557926508943593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.41341894263147</v>
+        <v>3.823575666666667</v>
       </c>
       <c r="H4">
-        <v>3.41341894263147</v>
+        <v>11.470727</v>
       </c>
       <c r="I4">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677273</v>
       </c>
       <c r="J4">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677272</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N4">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q4">
-        <v>192.9093673038564</v>
+        <v>217.7882508240017</v>
       </c>
       <c r="R4">
-        <v>192.9093673038564</v>
+        <v>1960.094257416015</v>
       </c>
       <c r="S4">
-        <v>0.02404148632878045</v>
+        <v>0.02506203984476562</v>
       </c>
       <c r="T4">
-        <v>0.02404148632878045</v>
+        <v>0.02506203984476561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.41341894263147</v>
+        <v>3.823575666666667</v>
       </c>
       <c r="H5">
-        <v>3.41341894263147</v>
+        <v>11.470727</v>
       </c>
       <c r="I5">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677273</v>
       </c>
       <c r="J5">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N5">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q5">
-        <v>155.1540277176426</v>
+        <v>193.0138944547726</v>
       </c>
       <c r="R5">
-        <v>155.1540277176426</v>
+        <v>1737.125050092953</v>
       </c>
       <c r="S5">
-        <v>0.01933619651737026</v>
+        <v>0.02221112431509456</v>
       </c>
       <c r="T5">
-        <v>0.01933619651737026</v>
+        <v>0.02221112431509455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.41341894263147</v>
+        <v>3.823575666666667</v>
       </c>
       <c r="H6">
-        <v>3.41341894263147</v>
+        <v>11.470727</v>
       </c>
       <c r="I6">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677273</v>
       </c>
       <c r="J6">
-        <v>0.06215867917816228</v>
+        <v>0.06680335774677272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N6">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q6">
-        <v>13.01928612982006</v>
+        <v>15.23044003135678</v>
       </c>
       <c r="R6">
-        <v>13.01928612982006</v>
+        <v>137.073960282211</v>
       </c>
       <c r="S6">
-        <v>0.001622539091155336</v>
+        <v>0.001752646864442838</v>
       </c>
       <c r="T6">
-        <v>0.001622539091155336</v>
+        <v>0.001752646864442838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.9296531816058</v>
+        <v>45.00377533333333</v>
       </c>
       <c r="H7">
-        <v>44.9296531816058</v>
+        <v>135.011326</v>
       </c>
       <c r="I7">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951583</v>
       </c>
       <c r="J7">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N7">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q7">
-        <v>223.9541990463211</v>
+        <v>224.8436469667771</v>
       </c>
       <c r="R7">
-        <v>223.9541990463211</v>
+        <v>2023.592822700994</v>
       </c>
       <c r="S7">
-        <v>0.02791047365867065</v>
+        <v>0.02587394139859983</v>
       </c>
       <c r="T7">
-        <v>0.02791047365867065</v>
+        <v>0.02587394139859983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.9296531816058</v>
+        <v>45.00377533333333</v>
       </c>
       <c r="H8">
-        <v>44.9296531816058</v>
+        <v>135.011326</v>
       </c>
       <c r="I8">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951583</v>
       </c>
       <c r="J8">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N8">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q8">
-        <v>1588.277453864376</v>
+        <v>1593.471340128843</v>
       </c>
       <c r="R8">
-        <v>1588.277453864376</v>
+        <v>14341.24206115958</v>
       </c>
       <c r="S8">
-        <v>0.1979403656082971</v>
+        <v>0.1833691306427443</v>
       </c>
       <c r="T8">
-        <v>0.1979403656082971</v>
+        <v>0.1833691306427443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.9296531816058</v>
+        <v>45.00377533333333</v>
       </c>
       <c r="H9">
-        <v>44.9296531816058</v>
+        <v>135.011326</v>
       </c>
       <c r="I9">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951583</v>
       </c>
       <c r="J9">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N9">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q9">
-        <v>2539.199293762472</v>
+        <v>2563.384215400563</v>
       </c>
       <c r="R9">
-        <v>2539.199293762472</v>
+        <v>23070.45793860507</v>
       </c>
       <c r="S9">
-        <v>0.3164497709998922</v>
+        <v>0.294982108083179</v>
       </c>
       <c r="T9">
-        <v>0.3164497709998922</v>
+        <v>0.294982108083179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.9296531816058</v>
+        <v>45.00377533333333</v>
       </c>
       <c r="H10">
-        <v>44.9296531816058</v>
+        <v>135.011326</v>
       </c>
       <c r="I10">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951583</v>
       </c>
       <c r="J10">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N10">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q10">
-        <v>2042.238814585369</v>
+        <v>2271.788163624057</v>
       </c>
       <c r="R10">
-        <v>2042.238814585369</v>
+        <v>20446.09347261651</v>
       </c>
       <c r="S10">
-        <v>0.2545156683014917</v>
+        <v>0.2614266162669339</v>
       </c>
       <c r="T10">
-        <v>0.2545156683014917</v>
+        <v>0.2614266162669339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.9296531816058</v>
+        <v>45.00377533333333</v>
       </c>
       <c r="H11">
-        <v>44.9296531816058</v>
+        <v>135.011326</v>
       </c>
       <c r="I11">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951583</v>
       </c>
       <c r="J11">
-        <v>0.8181731995512204</v>
+        <v>0.7862805827951582</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N11">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q11">
-        <v>171.3683612577469</v>
+        <v>179.2634332764576</v>
       </c>
       <c r="R11">
-        <v>171.3683612577469</v>
+        <v>1613.370899488118</v>
       </c>
       <c r="S11">
-        <v>0.02135692098286858</v>
+        <v>0.02062878640370134</v>
       </c>
       <c r="T11">
-        <v>0.02135692098286858</v>
+        <v>0.02062878640370133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.01256095811858</v>
+        <v>1.0574</v>
       </c>
       <c r="H12">
-        <v>1.01256095811858</v>
+        <v>3.1722</v>
       </c>
       <c r="I12">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="J12">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N12">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q12">
-        <v>5.047162893611219</v>
+        <v>5.282882836866667</v>
       </c>
       <c r="R12">
-        <v>5.047162893611219</v>
+        <v>47.5459455318</v>
       </c>
       <c r="S12">
-        <v>0.0006290067683170324</v>
+        <v>0.000607929122217779</v>
       </c>
       <c r="T12">
-        <v>0.0006290067683170324</v>
+        <v>0.0006079291222177789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.01256095811858</v>
+        <v>1.0574</v>
       </c>
       <c r="H13">
-        <v>1.01256095811858</v>
+        <v>3.1722</v>
       </c>
       <c r="I13">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="J13">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N13">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q13">
-        <v>35.7943502021391</v>
+        <v>37.43989437713334</v>
       </c>
       <c r="R13">
-        <v>35.7943502021391</v>
+        <v>336.9590493942</v>
       </c>
       <c r="S13">
-        <v>0.004460899919270555</v>
+        <v>0.004308405623872722</v>
       </c>
       <c r="T13">
-        <v>0.004460899919270555</v>
+        <v>0.004308405623872721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.01256095811858</v>
+        <v>1.0574</v>
       </c>
       <c r="H14">
-        <v>1.01256095811858</v>
+        <v>3.1722</v>
       </c>
       <c r="I14">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="J14">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N14">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q14">
-        <v>57.2248812906207</v>
+        <v>60.22877968100001</v>
       </c>
       <c r="R14">
-        <v>57.2248812906207</v>
+        <v>542.059017129</v>
       </c>
       <c r="S14">
-        <v>0.007131697234004868</v>
+        <v>0.00693084255213863</v>
       </c>
       <c r="T14">
-        <v>0.007131697234004868</v>
+        <v>0.006930842552138629</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.01256095811858</v>
+        <v>1.0574</v>
       </c>
       <c r="H15">
-        <v>1.01256095811858</v>
+        <v>3.1722</v>
       </c>
       <c r="I15">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="J15">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N15">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q15">
-        <v>46.0250890975074</v>
+        <v>53.37749525286668</v>
       </c>
       <c r="R15">
-        <v>46.0250890975074</v>
+        <v>480.3974572758</v>
       </c>
       <c r="S15">
-        <v>0.005735914050123508</v>
+        <v>0.006142429207176054</v>
       </c>
       <c r="T15">
-        <v>0.005735914050123508</v>
+        <v>0.006142429207176052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.01256095811858</v>
+        <v>1.0574</v>
       </c>
       <c r="H16">
-        <v>1.01256095811858</v>
+        <v>3.1722</v>
       </c>
       <c r="I16">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="J16">
-        <v>0.01843883004161927</v>
+        <v>0.01847429648045084</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N16">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O16">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P16">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q16">
-        <v>3.862057678588861</v>
+        <v>4.211938952733334</v>
       </c>
       <c r="R16">
-        <v>3.862057678588861</v>
+        <v>37.90745057460001</v>
       </c>
       <c r="S16">
-        <v>0.0004813120699033029</v>
+        <v>0.0004846899750456594</v>
       </c>
       <c r="T16">
-        <v>0.0004813120699033029</v>
+        <v>0.0004846899750456593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.922333679074558</v>
+        <v>1.609733333333333</v>
       </c>
       <c r="H17">
-        <v>0.922333679074558</v>
+        <v>4.8292</v>
       </c>
       <c r="I17">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268433</v>
       </c>
       <c r="J17">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268432</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N17">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O17">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P17">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q17">
-        <v>4.597420316503913</v>
+        <v>8.042398901644445</v>
       </c>
       <c r="R17">
-        <v>4.597420316503913</v>
+        <v>72.38159011480001</v>
       </c>
       <c r="S17">
-        <v>0.0005729572349526688</v>
+        <v>0.0009254811540930894</v>
       </c>
       <c r="T17">
-        <v>0.0005729572349526688</v>
+        <v>0.0009254811540930892</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.922333679074558</v>
+        <v>1.609733333333333</v>
       </c>
       <c r="H18">
-        <v>0.922333679074558</v>
+        <v>4.8292</v>
       </c>
       <c r="I18">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268433</v>
       </c>
       <c r="J18">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268432</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N18">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P18">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q18">
-        <v>32.60478734373228</v>
+        <v>56.99663890235556</v>
       </c>
       <c r="R18">
-        <v>32.60478734373228</v>
+        <v>512.9697501212</v>
       </c>
       <c r="S18">
-        <v>0.004063398061652671</v>
+        <v>0.0065589031078766</v>
       </c>
       <c r="T18">
-        <v>0.004063398061652671</v>
+        <v>0.006558903107876599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.922333679074558</v>
+        <v>1.609733333333333</v>
       </c>
       <c r="H19">
-        <v>0.922333679074558</v>
+        <v>4.8292</v>
       </c>
       <c r="I19">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268433</v>
       </c>
       <c r="J19">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268432</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N19">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O19">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P19">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q19">
-        <v>52.12568672749672</v>
+        <v>91.68930799933335</v>
       </c>
       <c r="R19">
-        <v>52.12568672749672</v>
+        <v>825.2037719940001</v>
       </c>
       <c r="S19">
-        <v>0.006496205976682777</v>
+        <v>0.01055117106512448</v>
       </c>
       <c r="T19">
-        <v>0.006496205976682777</v>
+        <v>0.01055117106512448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.922333679074558</v>
+        <v>1.609733333333333</v>
       </c>
       <c r="H20">
-        <v>0.922333679074558</v>
+        <v>4.8292</v>
       </c>
       <c r="I20">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268433</v>
       </c>
       <c r="J20">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268432</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N20">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O20">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P20">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q20">
-        <v>41.92388558602414</v>
+        <v>81.25925227764446</v>
       </c>
       <c r="R20">
-        <v>41.92388558602414</v>
+        <v>731.3332704988001</v>
       </c>
       <c r="S20">
-        <v>0.005224798236874453</v>
+        <v>0.0093509296788647</v>
       </c>
       <c r="T20">
-        <v>0.005224798236874453</v>
+        <v>0.009350929678864696</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.922333679074558</v>
+        <v>1.609733333333333</v>
       </c>
       <c r="H21">
-        <v>0.922333679074558</v>
+        <v>4.8292</v>
       </c>
       <c r="I21">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268433</v>
       </c>
       <c r="J21">
-        <v>0.01679578282547759</v>
+        <v>0.02812435299268432</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N21">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O21">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P21">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q21">
-        <v>3.517917453690583</v>
+        <v>6.412047030622223</v>
       </c>
       <c r="R21">
-        <v>3.517917453690583</v>
+        <v>57.7084232756</v>
       </c>
       <c r="S21">
-        <v>0.0004384233153150232</v>
+        <v>0.0007378679867254582</v>
       </c>
       <c r="T21">
-        <v>0.0004384233153150232</v>
+        <v>0.000737867986725458</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.63663225776304</v>
+        <v>5.741795333333333</v>
       </c>
       <c r="H22">
-        <v>4.63663225776304</v>
+        <v>17.225386</v>
       </c>
       <c r="I22">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="J22">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N22">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O22">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P22">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q22">
-        <v>23.11153525629206</v>
+        <v>28.68662002957045</v>
       </c>
       <c r="R22">
-        <v>23.11153525629206</v>
+        <v>258.179580266134</v>
       </c>
       <c r="S22">
-        <v>0.00288029382225943</v>
+        <v>0.003301120292176539</v>
       </c>
       <c r="T22">
-        <v>0.00288029382225943</v>
+        <v>0.003301120292176539</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.63663225776304</v>
+        <v>5.741795333333333</v>
       </c>
       <c r="H23">
-        <v>4.63663225776304</v>
+        <v>17.225386</v>
       </c>
       <c r="I23">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="J23">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N23">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P23">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q23">
-        <v>163.9064171516962</v>
+        <v>203.3026393182495</v>
       </c>
       <c r="R23">
-        <v>163.9064171516962</v>
+        <v>1829.723753864246</v>
       </c>
       <c r="S23">
-        <v>0.02042697014782607</v>
+        <v>0.02339510431743851</v>
       </c>
       <c r="T23">
-        <v>0.02042697014782607</v>
+        <v>0.02339510431743851</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.63663225776304</v>
+        <v>5.741795333333333</v>
       </c>
       <c r="H24">
-        <v>4.63663225776304</v>
+        <v>17.225386</v>
       </c>
       <c r="I24">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="J24">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N24">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O24">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P24">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q24">
-        <v>262.0392662894672</v>
+        <v>327.0487290568634</v>
       </c>
       <c r="R24">
-        <v>262.0392662894672</v>
+        <v>2943.43856151177</v>
       </c>
       <c r="S24">
-        <v>0.03265685604669933</v>
+        <v>0.03763521791369177</v>
       </c>
       <c r="T24">
-        <v>0.03265685604669933</v>
+        <v>0.03763521791369176</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.63663225776304</v>
+        <v>5.741795333333333</v>
       </c>
       <c r="H25">
-        <v>4.63663225776304</v>
+        <v>17.225386</v>
       </c>
       <c r="I25">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="J25">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N25">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O25">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P25">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q25">
-        <v>210.7541388643286</v>
+        <v>289.8455202836504</v>
       </c>
       <c r="R25">
-        <v>210.7541388643286</v>
+        <v>2608.609682552854</v>
       </c>
       <c r="S25">
-        <v>0.02626540545467521</v>
+        <v>0.03335404894750693</v>
       </c>
       <c r="T25">
-        <v>0.02626540545467521</v>
+        <v>0.03335404894750692</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.63663225776304</v>
+        <v>5.741795333333333</v>
       </c>
       <c r="H26">
-        <v>4.63663225776304</v>
+        <v>17.225386</v>
       </c>
       <c r="I26">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="J26">
-        <v>0.08443350840352072</v>
+        <v>0.1003174099849339</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N26">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O26">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P26">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q26">
-        <v>17.68480314228103</v>
+        <v>22.87127995374422</v>
       </c>
       <c r="R26">
-        <v>17.68480314228103</v>
+        <v>205.841519583698</v>
       </c>
       <c r="S26">
-        <v>0.002203982932060674</v>
+        <v>0.002631918514120121</v>
       </c>
       <c r="T26">
-        <v>0.002203982932060674</v>
+        <v>0.002631918514120121</v>
       </c>
     </row>
   </sheetData>
